--- a/Link Triggered MEAL.xlsx
+++ b/Link Triggered MEAL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9350D-0967-401B-A52A-64F3C2A16A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD8826D-0785-419B-B1E0-5EA6B9CAE8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="107">
   <si>
     <t>Mile id</t>
   </si>
@@ -1336,13 +1336,19 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="H12:I12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1467,7 +1473,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1670,7 +1676,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1757,7 +1763,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -1769,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>32.26</v>
+        <v>31.75</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -1786,7 +1792,7 @@
         <v>99</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1875,11 +1881,11 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1888,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
         <v>106</v>

--- a/Link Triggered MEAL.xlsx
+++ b/Link Triggered MEAL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD8826D-0785-419B-B1E0-5EA6B9CAE8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE0C8D-8C32-47E6-BA43-D219E8B71B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1618,22 +1618,22 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>66.67</v>
+        <v>55.56</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>88</v>
@@ -1763,7 +1763,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -1775,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>31.75</v>
+        <v>30.77</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -1792,7 +1792,7 @@
         <v>99</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>1</v>

--- a/Link Triggered MEAL.xlsx
+++ b/Link Triggered MEAL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE0C8D-8C32-47E6-BA43-D219E8B71B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473E7BF8-AA97-47C4-8CF8-9A47B2CA54FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="107">
   <si>
     <t>Mile id</t>
   </si>
@@ -1333,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9227DA0-8119-4883-8DE6-080161260421}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,7 +1344,7 @@
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
@@ -1473,7 +1473,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1586,57 +1586,57 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>55.56</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
         <v>86</v>
@@ -1644,28 +1644,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>52.63</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
         <v>86</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1687,14 +1687,14 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>8</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s">
         <v>86</v>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1723,18 +1723,18 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
+        <v>98</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1745,43 +1745,43 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>65</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>67</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>30.77</v>
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
         <v>72</v>
@@ -1789,28 +1789,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>28.99</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
         <v>72</v>
@@ -1818,39 +1818,39 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1861,45 +1861,74 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>8</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>106</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Link Triggered MEAL.xlsx
+++ b/Link Triggered MEAL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473E7BF8-AA97-47C4-8CF8-9A47B2CA54FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B457FC3-6F44-43B6-AE86-4FC87EE00B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apr" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Dec" sheetId="9" r:id="rId9"/>
     <sheet name="Jan" sheetId="10" r:id="rId10"/>
     <sheet name="Feb" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="107">
   <si>
     <t>Mile id</t>
   </si>
@@ -1335,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9227DA0-8119-4883-8DE6-080161260421}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1660,6 +1661,612 @@
       </c>
       <c r="F11">
         <v>52.63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>28.99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF1AC1A-8316-41EE-80B1-3B051813939F}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
